--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42995,6 +42995,41 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43030,6 +43030,41 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>126000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43065,6 +43065,41 @@
         <v>126000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>298700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43100,6 +43100,41 @@
         <v>298700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>129500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43135,6 +43135,41 @@
         <v>129500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>6900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43170,6 +43170,41 @@
         <v>6900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43205,6 +43205,41 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43240,6 +43240,41 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43275,6 +43275,41 @@
         <v>2700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>16600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43310,6 +43310,41 @@
         <v>16600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>95800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43345,6 +43345,41 @@
         <v>95800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>82800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43380,6 +43380,41 @@
         <v>82800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43415,6 +43415,76 @@
         <v>2400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>126600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>38800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43485,6 +43485,76 @@
         <v>38800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>75400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>8500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43555,6 +43555,41 @@
         <v>8500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>38000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43590,6 +43590,41 @@
         <v>38000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>54100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43625,6 +43625,41 @@
         <v>54100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>10400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43660,6 +43660,41 @@
         <v>10400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>96800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43695,6 +43695,76 @@
         <v>96800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>79900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>38700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43765,6 +43765,41 @@
         <v>38700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>58800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43800,6 +43800,41 @@
         <v>58800</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>67000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2580"/>
+  <dimension ref="A1:I2581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90700,6 +90700,41 @@
         <v>67000</v>
       </c>
     </row>
+    <row r="2581">
+      <c r="A2581" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2581" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2581" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="F2581" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="G2581" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="H2581" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="I2581" t="n">
+        <v>109200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2581"/>
+  <dimension ref="A1:I2582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90735,6 +90735,41 @@
         <v>109200</v>
       </c>
     </row>
+    <row r="2582">
+      <c r="A2582" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2582" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2582" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2582" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="F2582" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="G2582" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="H2582" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="I2582" t="n">
+        <v>197200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2582"/>
+  <dimension ref="A1:I2583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90770,6 +90770,41 @@
         <v>197200</v>
       </c>
     </row>
+    <row r="2583">
+      <c r="A2583" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2583" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2583" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2583" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="F2583" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="G2583" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="H2583" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I2583" t="n">
+        <v>131300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2583"/>
+  <dimension ref="A1:I2584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90805,6 +90805,41 @@
         <v>131300</v>
       </c>
     </row>
+    <row r="2584">
+      <c r="A2584" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2584" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F2584" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="G2584" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="H2584" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I2584" t="n">
+        <v>160300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2584"/>
+  <dimension ref="A1:I2585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90840,6 +90840,41 @@
         <v>160300</v>
       </c>
     </row>
+    <row r="2585">
+      <c r="A2585" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2585" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F2585" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="G2585" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H2585" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="I2585" t="n">
+        <v>137300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2585"/>
+  <dimension ref="A1:I2586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90875,6 +90875,41 @@
         <v>137300</v>
       </c>
     </row>
+    <row r="2586">
+      <c r="A2586" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2586" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2586" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2586" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="F2586" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="G2586" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="H2586" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="I2586" t="n">
+        <v>64600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2586"/>
+  <dimension ref="A1:I2587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90910,6 +90910,41 @@
         <v>64600</v>
       </c>
     </row>
+    <row r="2587">
+      <c r="A2587" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2587" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2587" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2587" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F2587" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="G2587" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="H2587" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="I2587" t="n">
+        <v>42600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2587"/>
+  <dimension ref="A1:I2588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90945,6 +90945,41 @@
         <v>42600</v>
       </c>
     </row>
+    <row r="2588">
+      <c r="A2588" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2588" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2588" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2588" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2588" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="F2588" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G2588" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2588" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2588" t="n">
+        <v>123600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2588"/>
+  <dimension ref="A1:I2589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90980,6 +90980,41 @@
         <v>123600</v>
       </c>
     </row>
+    <row r="2589">
+      <c r="A2589" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2589" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2589" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2589" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2589" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F2589" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="G2589" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="H2589" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I2589" t="n">
+        <v>56200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2589"/>
+  <dimension ref="A1:I2590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91015,6 +91015,41 @@
         <v>56200</v>
       </c>
     </row>
+    <row r="2590">
+      <c r="A2590" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2590" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2590" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2590" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="F2590" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G2590" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="H2590" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I2590" t="n">
+        <v>73600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2590"/>
+  <dimension ref="A1:I2591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91050,6 +91050,41 @@
         <v>73600</v>
       </c>
     </row>
+    <row r="2591">
+      <c r="A2591" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2591" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2591" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2591" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F2591" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="G2591" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="H2591" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="I2591" t="n">
+        <v>28000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2591"/>
+  <dimension ref="A1:I2592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91085,6 +91085,41 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="2592">
+      <c r="A2592" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2592" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="F2592" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="G2592" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="H2592" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="I2592" t="n">
+        <v>23700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2592"/>
+  <dimension ref="A1:I2593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91120,6 +91120,41 @@
         <v>23700</v>
       </c>
     </row>
+    <row r="2593">
+      <c r="A2593" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2593" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2593" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F2593" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G2593" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H2593" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I2593" t="n">
+        <v>42300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2593"/>
+  <dimension ref="A1:I2594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91155,6 +91155,41 @@
         <v>42300</v>
       </c>
     </row>
+    <row r="2594">
+      <c r="A2594" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2594" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F2594" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G2594" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="H2594" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="I2594" t="n">
+        <v>8400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3301.xlsx
+++ b/data/3301.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2594"/>
+  <dimension ref="A1:I2595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91190,6 +91190,41 @@
         <v>8400</v>
       </c>
     </row>
+    <row r="2595">
+      <c r="A2595" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>HLIND</t>
+        </is>
+      </c>
+      <c r="E2595" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F2595" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="G2595" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="H2595" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I2595" t="n">
+        <v>19900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
